--- a/datenRF4/AFL/i=47,75 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L3_S4_i47,75_fremdlüfter_abtriebswelle14.xlsx
+++ b/datenRF4/AFL/i=47,75 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L3_S4_i47,75_fremdlüfter_abtriebswelle14.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="134">
   <si>
     <t>Sequenz</t>
   </si>
@@ -505,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -897,11 +897,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -998,6 +1035,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,8 +1067,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1336,7 +1391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1346,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1366,46 +1421,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="58"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="70" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="77" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
@@ -1715,10 +1770,18 @@
       <c r="S10" s="44"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="24">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E11" s="26" t="s">
         <v>105</v>
       </c>
@@ -1740,10 +1803,18 @@
       <c r="S11" s="44"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="24">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="29" t="s">
         <v>132</v>
       </c>
@@ -1767,14 +1838,22 @@
       <c r="S12" s="44"/>
     </row>
     <row r="13" spans="1:19" ht="15" thickBot="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="38" t="s">
+      <c r="A13" s="85">
+        <v>9</v>
+      </c>
+      <c r="B13" s="86">
+        <v>2</v>
+      </c>
+      <c r="C13" s="87">
+        <v>1</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="89" t="s">
         <v>108</v>
       </c>
       <c r="G13" s="39"/>
@@ -1792,10 +1871,18 @@
       <c r="S13" s="44"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="60">
+        <v>1</v>
+      </c>
+      <c r="B14" s="90">
+        <v>3</v>
+      </c>
+      <c r="C14" s="91">
+        <v>1</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="62" t="s">
         <v>130</v>
       </c>
@@ -2242,10 +2329,18 @@
       <c r="S28" s="44"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="24">
+        <v>7</v>
+      </c>
+      <c r="B29" s="83">
+        <v>2</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E29" s="26" t="s">
         <v>105</v>
       </c>
@@ -2267,10 +2362,18 @@
       <c r="S29" s="44"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="24">
+        <v>8</v>
+      </c>
+      <c r="B30" s="83">
+        <v>2</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E30" s="29" t="s">
         <v>132</v>
       </c>
@@ -2294,10 +2397,18 @@
       <c r="S30" s="44"/>
     </row>
     <row r="31" spans="1:19" ht="15" thickBot="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="10">
+        <v>9</v>
+      </c>
+      <c r="B31" s="84">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E31" s="38" t="s">
         <v>107</v>
       </c>
@@ -2319,10 +2430,18 @@
       <c r="S31" s="44"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
+      <c r="A32" s="64">
+        <v>1</v>
+      </c>
+      <c r="B32" s="65">
+        <v>3</v>
+      </c>
+      <c r="C32" s="65">
+        <v>1</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>78</v>
+      </c>
       <c r="E32" s="66" t="s">
         <v>130</v>
       </c>
@@ -2346,17 +2465,25 @@
       <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:19" ht="15" thickBot="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="16">
+        <v>2</v>
+      </c>
+      <c r="B33" s="17">
+        <v>3</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="E33" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="71">
         <v>14131</v>
       </c>
       <c r="H33" s="21"/>
@@ -2517,10 +2644,18 @@
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="24">
+        <v>7</v>
+      </c>
+      <c r="B38" s="83">
+        <v>2</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>78</v>
+      </c>
       <c r="E38" s="26" t="s">
         <v>105</v>
       </c>
@@ -2542,10 +2677,18 @@
       <c r="S38" s="44"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="24">
+        <v>8</v>
+      </c>
+      <c r="B39" s="83">
+        <v>2</v>
+      </c>
+      <c r="C39" s="25">
+        <v>3</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>78</v>
+      </c>
       <c r="E39" s="29" t="s">
         <v>132</v>
       </c>
@@ -2569,10 +2712,18 @@
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="1:19" ht="15" thickBot="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="1">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E40" s="28" t="s">
         <v>107</v>
       </c>
@@ -2594,10 +2745,18 @@
       <c r="S40" s="44"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
+      <c r="A41" s="64">
+        <v>1</v>
+      </c>
+      <c r="B41" s="65">
+        <v>3</v>
+      </c>
+      <c r="C41" s="65">
+        <v>1</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>78</v>
+      </c>
       <c r="E41" s="66" t="s">
         <v>130</v>
       </c>
@@ -2621,17 +2780,25 @@
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="1:19" ht="15" thickBot="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="10">
+        <v>2</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E42" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="80" t="s">
+      <c r="F42" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42" s="71">
         <v>14131</v>
       </c>
       <c r="H42" s="21"/>
@@ -2792,10 +2959,18 @@
       <c r="S46" s="44"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="24">
+        <v>7</v>
+      </c>
+      <c r="B47" s="83">
+        <v>2</v>
+      </c>
+      <c r="C47" s="25">
+        <v>1</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>78</v>
+      </c>
       <c r="E47" s="26" t="s">
         <v>105</v>
       </c>
@@ -2817,10 +2992,18 @@
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="24">
+        <v>8</v>
+      </c>
+      <c r="B48" s="83">
+        <v>2</v>
+      </c>
+      <c r="C48" s="25">
+        <v>1</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>78</v>
+      </c>
       <c r="E48" s="29" t="s">
         <v>132</v>
       </c>
@@ -2844,10 +3027,18 @@
       <c r="S48" s="44"/>
     </row>
     <row r="49" spans="1:19" ht="15" thickBot="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E49" s="28" t="s">
         <v>107</v>
       </c>
@@ -2869,10 +3060,18 @@
       <c r="S49" s="44"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
+      <c r="A50" s="64">
+        <v>1</v>
+      </c>
+      <c r="B50" s="65">
+        <v>3</v>
+      </c>
+      <c r="C50" s="65">
+        <v>1</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>78</v>
+      </c>
       <c r="E50" s="66" t="s">
         <v>130</v>
       </c>
@@ -2896,17 +3095,25 @@
       <c r="S50" s="44"/>
     </row>
     <row r="51" spans="1:19" ht="15" thickBot="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="10">
+        <v>2</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11">
+        <v>3</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E51" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="80" t="s">
+      <c r="F51" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="81">
+      <c r="G51" s="71">
         <v>14131</v>
       </c>
       <c r="H51" s="21"/>
